--- a/SecHos/src/main/resources/templates/excelTemplate/填报信息表.xlsx
+++ b/SecHos/src/main/resources/templates/excelTemplate/填报信息表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mywork\work\git\SecHos\code\SecHosJava\SecHos\src\main\resources\templates\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_MyProject\2021\wuxieryuan\SecHosJava\SecHos\src\main\resources\templates\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792EBA9-0934-4C9E-BEFA-23D4F099C9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61ED1EF-AC08-4F73-BDCB-EB0D3B233970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,24 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="G6")
+jx:area(lastCell="G</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">")
 </t>
         </r>
       </text>
@@ -68,7 +85,24 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="data" var="item" lastCell="F5")
+jx:each(items="data" var="item" lastCell="G</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">")
 </t>
         </r>
       </text>
@@ -78,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>填报信息表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -153,6 +187,14 @@
   </si>
   <si>
     <t>餐后血糖(mmol/L)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.sq}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +267,12 @@
     </font>
     <font>
       <sz val="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -273,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +341,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,33 +656,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -644,8 +696,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -658,8 +711,9 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -678,8 +732,11 @@
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -697,6 +754,9 @@
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,7 +790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
